--- a/Data/EC/NIT-9008796196.xlsx
+++ b/Data/EC/NIT-9008796196.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D691867-5E93-4CD7-88C8-4E1CC883AF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B84E74-337F-4A6F-B410-1B93D3B43E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7D73DBE-5A90-40EB-8B4F-24C814CC1074}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7D465FE-3891-42D3-A10E-E9E9C877EFCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45528132</t>
+  </si>
+  <si>
+    <t>MEYBIS VALIENTE GIRADO</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1047419389</t>
+  </si>
+  <si>
+    <t>ERIKA PAOLA MARTINEZ SILGADO</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>20191183</t>
+  </si>
+  <si>
+    <t>ESTELA PATRICIA POILAO PATRICIA</t>
+  </si>
+  <si>
+    <t>20191208</t>
+  </si>
+  <si>
+    <t>MAIRA ALEJANDRA JULIO TAPIA</t>
+  </si>
+  <si>
+    <t>20191265</t>
+  </si>
+  <si>
+    <t>ALEJANDRA DEL CARMEN PAYARES CUADRO</t>
+  </si>
+  <si>
     <t>20191273</t>
   </si>
   <si>
     <t>OLGA ARAGON MACHUCA</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>45528132</t>
-  </si>
-  <si>
-    <t>MEYBIS VALIENTE GIRADO</t>
-  </si>
-  <si>
-    <t>20191265</t>
-  </si>
-  <si>
-    <t>ALEJANDRA DEL CARMEN PAYARES CUADRO</t>
-  </si>
-  <si>
-    <t>20191183</t>
-  </si>
-  <si>
-    <t>ESTELA PATRICIA POILAO PATRICIA</t>
-  </si>
-  <si>
-    <t>1047419389</t>
-  </si>
-  <si>
-    <t>ERIKA PAOLA MARTINEZ SILGADO</t>
-  </si>
-  <si>
-    <t>20191208</t>
-  </si>
-  <si>
-    <t>MAIRA ALEJANDRA JULIO TAPIA</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34D8C0E-F1C8-35F8-30A9-23E8B1158A29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF61194-0D65-5F6C-99A0-A792F3720B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,28 +896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4118EE5-CB0E-44A8-9745-2D85DF893707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38B8CAD-00C4-49B2-80E8-72A93B397C9D}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -930,7 +930,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -941,7 +941,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -952,7 +952,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -963,8 +963,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
@@ -979,8 +979,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -995,8 +995,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1011,8 +1011,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32021</v>
+        <v>4417</v>
       </c>
       <c r="G16" s="18">
         <v>828116</v>
@@ -1083,7 +1083,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>4417</v>
+        <v>33125</v>
       </c>
       <c r="G17" s="18">
         <v>828116</v>
@@ -1106,18 +1106,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1129,21 +1129,21 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>32021</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
         <v>828116</v>
@@ -1152,18 +1152,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1175,21 +1175,21 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>32021</v>
+        <v>33125</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1198,18 +1198,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1221,18 +1221,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1244,18 +1244,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1267,18 +1267,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1290,18 +1290,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1313,18 +1313,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1336,21 +1336,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G28" s="18">
         <v>828116</v>
@@ -1359,21 +1359,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1382,18 +1382,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1405,21 +1405,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F31" s="24">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G31" s="24">
         <v>828116</v>
@@ -1428,7 +1428,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>40</v>
       </c>

--- a/Data/EC/NIT-9008796196.xlsx
+++ b/Data/EC/NIT-9008796196.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B84E74-337F-4A6F-B410-1B93D3B43E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6397FF5-0C38-4C14-BB09-1B8FD5CC6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7D465FE-3891-42D3-A10E-E9E9C877EFCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28C0CC6F-2BC4-4B3F-8831-3863AAA4FCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,58 +80,58 @@
     <t>ERIKA PAOLA MARTINEZ SILGADO</t>
   </si>
   <si>
+    <t>20191183</t>
+  </si>
+  <si>
+    <t>ESTELA PATRICIA POILAO PATRICIA</t>
+  </si>
+  <si>
+    <t>20191208</t>
+  </si>
+  <si>
+    <t>MAIRA ALEJANDRA JULIO TAPIA</t>
+  </si>
+  <si>
+    <t>20191265</t>
+  </si>
+  <si>
+    <t>ALEJANDRA DEL CARMEN PAYARES CUADRO</t>
+  </si>
+  <si>
+    <t>20191273</t>
+  </si>
+  <si>
+    <t>OLGA ARAGON MACHUCA</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
     <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>20191183</t>
-  </si>
-  <si>
-    <t>ESTELA PATRICIA POILAO PATRICIA</t>
-  </si>
-  <si>
-    <t>20191208</t>
-  </si>
-  <si>
-    <t>MAIRA ALEJANDRA JULIO TAPIA</t>
-  </si>
-  <si>
-    <t>20191265</t>
-  </si>
-  <si>
-    <t>ALEJANDRA DEL CARMEN PAYARES CUADRO</t>
-  </si>
-  <si>
-    <t>20191273</t>
-  </si>
-  <si>
-    <t>OLGA ARAGON MACHUCA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF61194-0D65-5F6C-99A0-A792F3720B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D12FA35-AAA6-F5AF-C54D-0413377FD859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38B8CAD-00C4-49B2-80E8-72A93B397C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D364831F-ECBE-4034-A39F-72094DCA3FC0}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1094,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1111,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G18" s="18">
         <v>828116</v>
@@ -1134,16 +1134,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G19" s="18">
         <v>828116</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1180,16 +1180,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>32021</v>
       </c>
       <c r="G21" s="18">
         <v>828116</v>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1232,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1301,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1324,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1341,16 +1341,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>32021</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
         <v>828116</v>
@@ -1364,16 +1364,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>32021</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>828116</v>
@@ -1387,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
         <v>33125</v>
@@ -1410,16 +1410,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F31" s="24">
-        <v>32021</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="24">
         <v>828116</v>

--- a/Data/EC/NIT-9008796196.xlsx
+++ b/Data/EC/NIT-9008796196.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6397FF5-0C38-4C14-BB09-1B8FD5CC6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11F14AE-4216-4EE1-A4F4-4258BE69EE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28C0CC6F-2BC4-4B3F-8831-3863AAA4FCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A818EF3-D8D4-4ED3-AA07-34FB77EF0532}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -245,7 +243,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,29 +439,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,19 +480,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D12FA35-AAA6-F5AF-C54D-0413377FD859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556BFDC8-AF8E-EDAA-DFB2-12D3EED0E77E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D364831F-ECBE-4034-A39F-72094DCA3FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E7144C-5B6F-4EB9-8499-92DDAD359494}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -919,49 +925,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -969,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -985,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008796196</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>497980</v>
       </c>
@@ -1070,18 +1076,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>4417</v>
       </c>
-      <c r="G16" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1093,18 +1099,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1116,18 +1122,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>32021</v>
       </c>
-      <c r="G18" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1139,18 +1145,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>32021</v>
       </c>
-      <c r="G19" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1162,18 +1168,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33125</v>
       </c>
-      <c r="G20" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1185,18 +1191,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>32021</v>
       </c>
-      <c r="G21" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1208,18 +1214,18 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>33125</v>
       </c>
-      <c r="G22" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1231,18 +1237,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1254,18 +1260,18 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>33125</v>
       </c>
-      <c r="G24" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1277,18 +1283,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1300,18 +1306,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33125</v>
       </c>
-      <c r="G26" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1323,18 +1329,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33125</v>
       </c>
-      <c r="G27" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1346,18 +1352,18 @@
       <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>33125</v>
       </c>
-      <c r="G28" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1369,18 +1375,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>33125</v>
       </c>
-      <c r="G29" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1392,47 +1398,47 @@
       <c r="D30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>33125</v>
       </c>
-      <c r="G30" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="26">
         <v>33125</v>
       </c>
-      <c r="G31" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="G31" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1440,10 +1446,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>42</v>
       </c>
